--- a/VersionRecords/Version Bill/定时器/定时器变更.xlsx
+++ b/VersionRecords/Version Bill/定时器/定时器变更.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$1:$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$1:$4</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="58">
   <si>
     <t>定时器大类</t>
   </si>
@@ -82,32 +82,16 @@
     <t>否</t>
   </si>
   <si>
-    <t>CalculateVScoreTask</t>
-  </si>
-  <si>
     <t>定时周期任务</t>
   </si>
   <si>
-    <t>报错原因：错误数据导致，根据报错日志，修复数据，重新执行一次即可</t>
-  </si>
-  <si>
-    <t>CollectUserBehaviorRecordTask</t>
-  </si>
-  <si>
     <t>com.mogoroom.tasktracker.task.CollectUserBehaviorRecordTask</t>
   </si>
   <si>
-    <t>{"taskImpl":"com.mogoroom.tasktracker.task.CollectUserBehaviorRecordTask"}</t>
-  </si>
-  <si>
     <t>bill</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>bill</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>王辉</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -117,10 +101,6 @@
   </si>
   <si>
     <t>王辉</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>袁冰秋</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
@@ -145,16 +125,104 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>{"taskImpl":"com.mogoroom.tasktracker.task.CreateNormalBillBySignedOrderTask"}</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>com.mogoroom.tasktracker.task.CreateNormalBillBySignedOrderTask</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>CreateNormalBillBySignedOrderTask
 (mogoroom-tasktracker)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>账单提醒</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>（新增）账单提醒，推送消息 租客&amp;房东&amp;房东子账号</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>报错原因：错误数据导致，根据报错日志，修复数据，重新执行一次即可</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>可否删除</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>王辉</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>袁冰秋</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>袁冰秋</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>付款截止日及付款截止日三天前推送短信给租客</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>（关闭）签约成功的签约单自动生成销售账单任务.去除账单推送功能，账单提醒功能由新的定时任务取代</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>（关闭）付款截止日及付款截止日三天前推送短信给租客，账单提醒功能由新的定时任务取代</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>已上线</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>SendSaleBillMessageTask</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>eateNormalBillBySignedOrderTask</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"taskImpl":"com.mogoroom.tasktracker.task.CreateNormalBillBySignedOrderTask"}</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.mogoroom.tasktracker.task.SendSaleBillMessageTask</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"taskImpl":"com.mogoroom.tasktracker.task.SendSaleBillMessageTask"}</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>定时周期任务</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>定时周期任务</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>报错原因：错误数据导致，根据报错日志，修复数据，重新执行一次即可</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>bill(停用)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>bill(停用)</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
@@ -175,27 +243,11 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>账单提醒</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>是</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>（关闭）由签约成功的签约单自动生成销售账单任务.去除账单推送功能，账单提醒功能由新的定时任务取代</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>（新增）账单提醒，推送消息 租客&amp;房东&amp;房东子账号</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>报错原因：错误数据导致，根据报错日志，修复数据，重新执行一次即可</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>可否删除</t>
+    <t>MsgBillHintByOrderTask</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"taskImpl":"com.mogoroom.tasktracker.task.MsgBillHintByOrderTask"}</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -755,10 +807,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R3"/>
+  <dimension ref="A1:R4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -812,7 +864,7 @@
         <v>8</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="K1" s="11" t="s">
         <v>9</v>
@@ -843,107 +895,157 @@
       <c r="A2" s="23"/>
       <c r="B2" s="24"/>
       <c r="C2" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" s="8" t="s">
         <v>38</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>30</v>
       </c>
       <c r="H2" s="9"/>
       <c r="I2" s="13" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="J2" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="K2" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="K2" s="10" t="s">
-        <v>42</v>
-      </c>
       <c r="L2" s="15" t="s">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="M2" s="15" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="N2" s="15" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="O2" s="16" t="s">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="P2" s="17" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="Q2" s="14" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="R2" s="14" t="s">
-        <v>25</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:18" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="23"/>
       <c r="B3" s="24"/>
-      <c r="C3" s="10" t="s">
-        <v>39</v>
+      <c r="C3" s="14" t="s">
+        <v>45</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>40</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="H3" s="9"/>
       <c r="I3" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="J3" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="K3" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="L3" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="M3" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="N3" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="O3" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="P3" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q3" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="R3" s="14" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="23"/>
+      <c r="B4" s="24"/>
+      <c r="C4" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="H4" s="9"/>
+      <c r="I4" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="J3" s="8" t="s">
+      <c r="J4" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="K3" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="L3" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="M3" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="N3" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="O3" s="16" t="s">
+      <c r="K4" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="L4" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="M4" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="P3" s="18" t="s">
+      <c r="N4" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="O4" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="P4" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q4" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="Q3" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="R3" s="14" t="s">
-        <v>26</v>
+      <c r="R4" s="14" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:XFD3"/>
+  <autoFilter ref="A1:XFD4"/>
   <mergeCells count="2">
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
